--- a/data/trans_orig/P55S7-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S7-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B700EB-4C30-473C-80B2-6EFBD3FF5025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE634C0-3020-491D-9846-FC3F7178F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC6586FE-AB21-4A3F-B7B2-D7B5FB63425C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCC9336E-2DF2-4875-BFA3-8A05AA896F13}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9348BE5-312B-44C4-AD0C-C49F40312A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71C84B7-F58B-4873-896F-389169BF527E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P55S7-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S7-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE634C0-3020-491D-9846-FC3F7178F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1581AB8C-DF2E-4D5C-B404-7903FD438417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCC9336E-2DF2-4875-BFA3-8A05AA896F13}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5B938EA-7FB0-4370-8EF9-E262E137E3D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71C84B7-F58B-4873-896F-389169BF527E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0F761D-FCA2-4B29-A8FF-05FE848AC524}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
